--- a/data/trans_dic/P19C07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,32</t>
+          <t>1,57; 5,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,08</t>
+          <t>1,81; 6,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,1</t>
+          <t>0,51; 3,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,82</t>
+          <t>2,35; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,27</t>
+          <t>0,37; 3,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 9,29</t>
+          <t>3,05; 8,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 6,12</t>
+          <t>1,46; 5,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,78</t>
+          <t>4,06; 8,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,77</t>
+          <t>1,38; 3,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,12</t>
+          <t>2,82; 6,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,8</t>
+          <t>1,29; 3,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 6,59</t>
+          <t>3,56; 6,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,33</t>
+          <t>1,88; 6,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,87</t>
+          <t>0,52; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,12</t>
+          <t>1,58; 6,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,54</t>
+          <t>1,69; 5,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,2</t>
+          <t>2,86; 7,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,82</t>
+          <t>0,8; 4,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,21</t>
+          <t>1,59; 5,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,91</t>
+          <t>2,8; 7,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,86</t>
+          <t>2,74; 5,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,75</t>
+          <t>0,84; 2,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,88</t>
+          <t>2,01; 4,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,16</t>
+          <t>2,56; 5,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,31</t>
+          <t>2,64; 6,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,11</t>
+          <t>1,81; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,57</t>
+          <t>1,89; 5,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 4,48</t>
+          <t>0,65; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,14</t>
+          <t>0,67; 5,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,62</t>
+          <t>1,26; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,17</t>
+          <t>0,8; 8,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,58</t>
+          <t>1,47; 6,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,33</t>
+          <t>2,34; 5,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,48</t>
+          <t>1,89; 4,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,29</t>
+          <t>1,86; 5,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,15</t>
+          <t>0,87; 4,17</t>
         </is>
       </c>
     </row>
@@ -1149,57 +1150,57 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,21</t>
+          <t>1,78; 4,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,77</t>
+          <t>1,61; 3,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,1</t>
+          <t>1,69; 3,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,64</t>
+          <t>2,4; 5,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,97</t>
+          <t>2,75; 5,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,15</t>
+          <t>3,02; 6,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,66</t>
+          <t>2,09; 5,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,33</t>
+          <t>2,39; 4,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,31</t>
+          <t>2,53; 4,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,15</t>
+          <t>2,5; 4,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,27</t>
+          <t>2,3; 4,32</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,41</t>
+          <t>1,6; 6,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,99</t>
+          <t>1,11; 4,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,05</t>
+          <t>0,93; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 9,77</t>
+          <t>1,7; 9,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,75</t>
+          <t>2,73; 7,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,0</t>
+          <t>1,41; 3,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,41</t>
+          <t>1,45; 4,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,02</t>
+          <t>1,88; 3,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,88</t>
+          <t>2,8; 6,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,46</t>
+          <t>1,54; 3,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,6</t>
+          <t>1,56; 3,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,93</t>
+          <t>2,04; 4,94</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,19</t>
+          <t>2,51; 8,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 16,86</t>
+          <t>7,45; 16,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 10,22</t>
+          <t>3,53; 10,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 13,84</t>
+          <t>1,29; 12,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,54</t>
+          <t>2,11; 4,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,8</t>
+          <t>3,01; 5,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,4</t>
+          <t>2,81; 5,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,4</t>
+          <t>2,12; 5,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,55</t>
+          <t>2,53; 4,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,21</t>
+          <t>4,48; 7,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,93</t>
+          <t>3,39; 5,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,01</t>
+          <t>2,33; 5,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,26</t>
+          <t>2,78; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,07</t>
+          <t>2,74; 4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,54</t>
+          <t>2,21; 3,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,16</t>
+          <t>2,29; 4,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,19</t>
+          <t>2,8; 4,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,37</t>
+          <t>2,92; 4,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,35</t>
+          <t>2,99; 4,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 4,63</t>
+          <t>3,09; 4,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,95</t>
+          <t>3,02; 4,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,91</t>
+          <t>2,98; 3,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,74</t>
+          <t>2,78; 3,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,09</t>
+          <t>2,92; 4,16</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por ortodoncia</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11636</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13221</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5343</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19149</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15717</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10378</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26582</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15529</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28937</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15721</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45730</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6057; 21006</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7172; 24744</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1959; 11688</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11713; 29862</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>981; 9678</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8970; 26091</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4618; 18575</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17912; 37550</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9060; 25375</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19415; 45078</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9102; 25197</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33477; 60995</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10568</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10553</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13903</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15595</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5944</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10225</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16683</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26163</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10927</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30586</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5646; 18807</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1979; 11271</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5016; 19302</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7598; 23318</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9532; 24169</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2493; 13644</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5291; 18467</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10584; 26437</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17385; 37598</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5867; 18254</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13070; 32439</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21154; 42293</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17785</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16530</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13883</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14946</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3099</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7004</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5162</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20885</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23535</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18586</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20108</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11354; 27292</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9717; 26883</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7644; 22927</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4322; 29228</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>943; 8014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3021; 14108</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1115; 12072</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2433; 9900</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13338; 31832</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14668; 34816</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10125; 28031</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7157; 34394</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>25310</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26647</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22103</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26892</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22614</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28855</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29587</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38100</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47924</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55502</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51690</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16488; 36794</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17286; 40866</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14138; 33087</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16868; 39420</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14307; 32226</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19190; 41444</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20648; 41271</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19997; 54792</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35122; 63563</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42211; 73575</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39146; 69124</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44946; 84590</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8844</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8881</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8820</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16616</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20158</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16117</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14703</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22391</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29002</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24998</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23523</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>39007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3959; 15539</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4482; 16292</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3969; 16763</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7457; 40331</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12434; 32265</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9422; 25990</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8070; 22612</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15330; 32279</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19699; 42253</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16577; 37624</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15364; 34417</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25577; 61861</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10177</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>26167</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15063</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11538</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29732</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39304</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33480</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25252</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>39910</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>65471</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>48543</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36790</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5321; 17014</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16490; 35501</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8523; 25002</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3014; 29130</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19944; 40656</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27820; 52139</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>23206; 45771</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15760; 41106</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29267; 53384</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>51365; 84111</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>36186; 62095</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22754; 57906</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>84321</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>96430</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>75765</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>103043</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>95091</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>112940</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>103076</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>134170</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>179412</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>209369</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>178841</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>237213</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>67976; 102751</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>79827; 119066</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>58757; 93809</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>74973; 132312</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>76587; 115656</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>91727; 137779</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>85256; 125249</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>108318; 160686</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>156698; 207471</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>180710; 241025</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>153324; 209323</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>197837; 281759</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P19C07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
